--- a/CloudMonitor5G-2.0/src/main/resources/templates/1.网络参数配置.xlsx
+++ b/CloudMonitor5G-2.0/src/main/resources/templates/1.网络参数配置.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ETG相关\联通密测\联通报表\to戊青\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="6900"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13740" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="5G" sheetId="1" r:id="rId1"/>
@@ -459,11 +454,11 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="h:mm:ss.000"/>
   </numFmts>
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="6">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1008,7 +1003,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1018,17 +1013,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AC7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G13" sqref="G13"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
     <col min="4" max="4" width="7.5" customWidth="1"/>
     <col min="5" max="5" width="13.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:29" s="4" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:29" s="4" customFormat="1" ht="14.25" customHeight="1">
       <c r="A1" s="15" t="s">
         <v>0</v>
       </c>
@@ -1077,7 +1072,7 @@
       <c r="AB1" s="14"/>
       <c r="AC1" s="14"/>
     </row>
-    <row r="2" spans="1:29" s="4" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:29" s="4" customFormat="1" ht="13.5" customHeight="1">
       <c r="A2" s="15"/>
       <c r="B2" s="15"/>
       <c r="C2" s="15"/>
@@ -1116,7 +1111,7 @@
       <c r="AB2" s="13"/>
       <c r="AC2" s="13"/>
     </row>
-    <row r="3" spans="1:29" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:29" s="4" customFormat="1">
       <c r="A3" s="15"/>
       <c r="B3" s="15"/>
       <c r="C3" s="15"/>
@@ -1161,7 +1156,7 @@
       <c r="AB3" s="13"/>
       <c r="AC3" s="13"/>
     </row>
-    <row r="4" spans="1:29" s="4" customFormat="1" ht="42.75" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:29" s="4" customFormat="1" ht="40.5">
       <c r="A4" s="15"/>
       <c r="B4" s="15"/>
       <c r="C4" s="15"/>
@@ -1236,7 +1231,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="5" spans="1:29" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:29" ht="21" customHeight="1">
       <c r="A5" s="2" t="s">
         <v>63</v>
       </c>
@@ -1269,7 +1264,7 @@
       <c r="AB5" s="2"/>
       <c r="AC5" s="2"/>
     </row>
-    <row r="6" spans="1:29" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:29" ht="14.25">
       <c r="A6" s="3" t="s">
         <v>64</v>
       </c>
@@ -1277,19 +1272,19 @@
         <v>65</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="E6" s="3" t="s">
         <v>68</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="G6" s="3" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="H6" s="3" t="s">
         <v>71</v>
@@ -1358,7 +1353,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="7" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:29">
       <c r="A7" t="s">
         <v>93</v>
       </c>
@@ -1396,16 +1391,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
     <col min="4" max="4" width="11.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:21">
       <c r="A1" s="15" t="s">
         <v>0</v>
       </c>
@@ -1446,7 +1441,7 @@
       <c r="T1" s="14"/>
       <c r="U1" s="14"/>
     </row>
-    <row r="2" spans="1:21" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:21" ht="13.5" customHeight="1">
       <c r="A2" s="15"/>
       <c r="B2" s="15"/>
       <c r="C2" s="15"/>
@@ -1473,7 +1468,7 @@
       <c r="T2" s="13"/>
       <c r="U2" s="13"/>
     </row>
-    <row r="3" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:21">
       <c r="A3" s="15"/>
       <c r="B3" s="15"/>
       <c r="C3" s="15"/>
@@ -1504,7 +1499,7 @@
       <c r="T3" s="24"/>
       <c r="U3" s="25"/>
     </row>
-    <row r="4" spans="1:21" ht="42.75" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:21" ht="40.5">
       <c r="A4" s="15"/>
       <c r="B4" s="15"/>
       <c r="C4" s="15"/>
@@ -1555,7 +1550,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="5" spans="1:21" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:21" ht="22.5" customHeight="1">
       <c r="A5" s="2" t="s">
         <v>94</v>
       </c>
@@ -1580,27 +1575,27 @@
       <c r="T5" s="2"/>
       <c r="U5" s="2"/>
     </row>
-    <row r="6" spans="1:21" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:21" ht="28.5">
       <c r="A6" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="B6" s="1" t="s">
+      <c r="B6" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="C6" s="1" t="s">
+      <c r="C6" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="F6" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="G6" s="3" t="s">
         <v>66</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="F6" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="G6" s="1" t="s">
-        <v>70</v>
       </c>
       <c r="H6" s="3" t="s">
         <v>99</v>
@@ -1645,7 +1640,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:21">
       <c r="A7" t="s">
         <v>93</v>
       </c>
@@ -1670,6 +1665,7 @@
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="200" verticalDpi="200" copies="0" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -1681,9 +1677,9 @@
       <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:17">
       <c r="A1" s="27" t="s">
         <v>25</v>
       </c>
@@ -1712,7 +1708,7 @@
       <c r="P1" s="28"/>
       <c r="Q1" s="28"/>
     </row>
-    <row r="2" spans="1:17" ht="42.75" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:17" ht="40.5">
       <c r="A2" s="27"/>
       <c r="B2" s="27"/>
       <c r="C2" s="27"/>
@@ -1757,7 +1753,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="3" spans="1:17" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:17" ht="19.5" customHeight="1">
       <c r="A3" s="2" t="s">
         <v>95</v>
       </c>
@@ -1778,7 +1774,7 @@
       <c r="P3" s="11"/>
       <c r="Q3" s="11"/>
     </row>
-    <row r="4" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:17" ht="14.25">
       <c r="A4" s="3" t="s">
         <v>100</v>
       </c>
@@ -1831,7 +1827,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:17">
       <c r="A5" s="1" t="s">
         <v>93</v>
       </c>
@@ -1874,9 +1870,9 @@
       <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:17">
       <c r="A1" s="27" t="s">
         <v>25</v>
       </c>
@@ -1905,7 +1901,7 @@
       <c r="P1" s="28"/>
       <c r="Q1" s="28"/>
     </row>
-    <row r="2" spans="1:17" ht="42.75" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:17" ht="40.5">
       <c r="A2" s="27"/>
       <c r="B2" s="27"/>
       <c r="C2" s="29"/>
@@ -1950,7 +1946,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="3" spans="1:17" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:17" ht="16.5" customHeight="1">
       <c r="A3" s="2" t="s">
         <v>96</v>
       </c>
@@ -1971,7 +1967,7 @@
       <c r="P3" s="11"/>
       <c r="Q3" s="11"/>
     </row>
-    <row r="4" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:17" ht="14.25">
       <c r="A4" s="3" t="s">
         <v>100</v>
       </c>
@@ -2024,7 +2020,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:17">
       <c r="A5" s="1" t="s">
         <v>93</v>
       </c>
@@ -2067,9 +2063,9 @@
       <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:17">
       <c r="A1" s="30" t="s">
         <v>25</v>
       </c>
@@ -2098,7 +2094,7 @@
       <c r="P1" s="32"/>
       <c r="Q1" s="32"/>
     </row>
-    <row r="2" spans="1:17" ht="42.75" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:17" ht="40.5">
       <c r="A2" s="30"/>
       <c r="B2" s="30"/>
       <c r="C2" s="31"/>
@@ -2143,7 +2139,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="3" spans="1:17" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:17" ht="19.5" customHeight="1">
       <c r="A3" s="2" t="s">
         <v>97</v>
       </c>
@@ -2164,7 +2160,7 @@
       <c r="P3" s="11"/>
       <c r="Q3" s="11"/>
     </row>
-    <row r="4" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:17" ht="14.25">
       <c r="A4" s="3" t="s">
         <v>100</v>
       </c>
@@ -2217,7 +2213,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:17">
       <c r="A5" s="1" t="s">
         <v>93</v>
       </c>
@@ -2259,9 +2255,9 @@
       <selection activeCell="G11" sqref="A10:G11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:17">
       <c r="A1" s="30" t="s">
         <v>25</v>
       </c>
@@ -2290,7 +2286,7 @@
       <c r="P1" s="32"/>
       <c r="Q1" s="32"/>
     </row>
-    <row r="2" spans="1:17" ht="42.75" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:17" ht="40.5">
       <c r="A2" s="30"/>
       <c r="B2" s="30"/>
       <c r="C2" s="31"/>
@@ -2335,7 +2331,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="3" spans="1:17" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:17" ht="17.25" customHeight="1">
       <c r="A3" s="2" t="s">
         <v>98</v>
       </c>
@@ -2356,7 +2352,7 @@
       <c r="P3" s="11"/>
       <c r="Q3" s="11"/>
     </row>
-    <row r="4" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:17" ht="14.25">
       <c r="A4" s="3" t="s">
         <v>100</v>
       </c>
@@ -2409,7 +2405,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:17">
       <c r="A5" s="1" t="s">
         <v>93</v>
       </c>

--- a/CloudMonitor5G-2.0/src/main/resources/templates/1.网络参数配置.xlsx
+++ b/CloudMonitor5G-2.0/src/main/resources/templates/1.网络参数配置.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="6" rupBuild="4507"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13740" activeTab="1"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="5G" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
     <sheet name="4G→5G 基于测量切换详情" sheetId="7" r:id="rId5"/>
     <sheet name="4G→5G 基于测量重定向详情" sheetId="8" r:id="rId6"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="125725"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="273" uniqueCount="119">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="273" uniqueCount="133">
   <si>
     <t>省份</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -449,12 +449,58 @@
   </si>
   <si>
     <t>${LTE_EVENT_B2_THRESHOLD2EUTRA_RSRP}</t>
+  </si>
+  <si>
+    <t>${item.NR_EVENT_A2_THRESHOLD_RSRP}</t>
+  </si>
+  <si>
+    <t>${item.NR_EVENT_A2_THRESHOLD_RSRP}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>${item.NR_EVENT_A2_HYSTERIS}</t>
+  </si>
+  <si>
+    <t>${item.NR_EVENT_A2_HYSTERIS}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>${item.NR_EVENT_A2_TIME_TO_TRIGGER}</t>
+  </si>
+  <si>
+    <t>${item.NR_EVENT_A2_TIME_TO_TRIGGER}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>${item.NR_EVENT_B1_THRESHOLD_RSRP}</t>
+  </si>
+  <si>
+    <t>${item.NR_EVENT_B1_HYSTERIS}</t>
+  </si>
+  <si>
+    <t>${item.NR_EVENT_B1_TIME_TO_TRIGGER}</t>
+  </si>
+  <si>
+    <t>${item.NR_EVENT_B2_THRESHOLD_RSRP}</t>
+  </si>
+  <si>
+    <t>${item.NR_EVENT_B2_HYSTERIS}</t>
+  </si>
+  <si>
+    <t>${item.NR_EVENT_B2_TIME_TO_TRIGGER}</t>
+  </si>
+  <si>
+    <t>${item.NR_EVENT_B2_THRESHOLD2EUTRA_RSRP}</t>
+  </si>
+  <si>
+    <t>${item.NR_EVENT_B1_TIME_TO_TRIGGER}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="h:mm:ss.000"/>
   </numFmts>
@@ -1010,14 +1056,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:AC7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A37" workbookViewId="0">
       <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
     <col min="4" max="4" width="7.5" customWidth="1"/>
     <col min="5" max="5" width="13.625" customWidth="1"/>
@@ -1156,7 +1202,7 @@
       <c r="AB3" s="13"/>
       <c r="AC3" s="13"/>
     </row>
-    <row r="4" spans="1:29" s="4" customFormat="1" ht="40.5">
+    <row r="4" spans="1:29" s="4" customFormat="1" ht="42.75">
       <c r="A4" s="15"/>
       <c r="B4" s="15"/>
       <c r="C4" s="15"/>
@@ -1264,7 +1310,7 @@
       <c r="AB5" s="2"/>
       <c r="AC5" s="2"/>
     </row>
-    <row r="6" spans="1:29" ht="14.25">
+    <row r="6" spans="1:29" ht="15.75">
       <c r="A6" s="3" t="s">
         <v>64</v>
       </c>
@@ -1388,14 +1434,14 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:U7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
     <col min="4" max="4" width="11.875" customWidth="1"/>
   </cols>
@@ -1499,7 +1545,7 @@
       <c r="T3" s="24"/>
       <c r="U3" s="25"/>
     </row>
-    <row r="4" spans="1:21" ht="40.5">
+    <row r="4" spans="1:21" ht="42.75">
       <c r="A4" s="15"/>
       <c r="B4" s="15"/>
       <c r="C4" s="15"/>
@@ -1575,7 +1621,7 @@
       <c r="T5" s="2"/>
       <c r="U5" s="2"/>
     </row>
-    <row r="6" spans="1:21" ht="28.5">
+    <row r="6" spans="1:21" ht="31.5">
       <c r="A6" s="3" t="s">
         <v>64</v>
       </c>
@@ -1670,14 +1716,26 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:Q5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C14" sqref="C14:D56"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
+  <cols>
+    <col min="4" max="4" width="38.875" customWidth="1"/>
+    <col min="8" max="8" width="19.125" customWidth="1"/>
+    <col min="9" max="9" width="10.625" customWidth="1"/>
+    <col min="10" max="10" width="16.5" customWidth="1"/>
+    <col min="12" max="12" width="35.875" customWidth="1"/>
+    <col min="13" max="13" width="25.25" customWidth="1"/>
+    <col min="14" max="14" width="43.5" customWidth="1"/>
+    <col min="15" max="15" width="40.25" customWidth="1"/>
+    <col min="16" max="16" width="45.25" customWidth="1"/>
+    <col min="17" max="17" width="55.5" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" s="27" t="s">
@@ -1708,7 +1766,7 @@
       <c r="P1" s="28"/>
       <c r="Q1" s="28"/>
     </row>
-    <row r="2" spans="1:17" ht="40.5">
+    <row r="2" spans="1:17" ht="42.75">
       <c r="A2" s="27"/>
       <c r="B2" s="27"/>
       <c r="C2" s="27"/>
@@ -1774,7 +1832,7 @@
       <c r="P3" s="11"/>
       <c r="Q3" s="11"/>
     </row>
-    <row r="4" spans="1:17" ht="14.25">
+    <row r="4" spans="1:17" ht="15.75">
       <c r="A4" s="3" t="s">
         <v>100</v>
       </c>
@@ -1797,34 +1855,34 @@
         <v>106</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>107</v>
+        <v>120</v>
       </c>
       <c r="I4" s="1" t="s">
-        <v>108</v>
+        <v>122</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>109</v>
+        <v>124</v>
       </c>
       <c r="K4" s="1" t="s">
-        <v>110</v>
+        <v>125</v>
       </c>
       <c r="L4" s="1" t="s">
-        <v>111</v>
+        <v>126</v>
       </c>
       <c r="M4" s="1" t="s">
-        <v>112</v>
+        <v>132</v>
       </c>
       <c r="N4" s="1" t="s">
-        <v>113</v>
+        <v>128</v>
       </c>
       <c r="O4" s="1" t="s">
-        <v>114</v>
+        <v>129</v>
       </c>
       <c r="P4" s="1" t="s">
-        <v>115</v>
+        <v>130</v>
       </c>
       <c r="Q4" s="1" t="s">
-        <v>116</v>
+        <v>131</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -1863,14 +1921,17 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:Q5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
+  <cols>
+    <col min="8" max="8" width="21.25" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" s="27" t="s">
@@ -1901,7 +1962,7 @@
       <c r="P1" s="28"/>
       <c r="Q1" s="28"/>
     </row>
-    <row r="2" spans="1:17" ht="40.5">
+    <row r="2" spans="1:17" ht="42.75">
       <c r="A2" s="27"/>
       <c r="B2" s="27"/>
       <c r="C2" s="29"/>
@@ -1967,7 +2028,7 @@
       <c r="P3" s="11"/>
       <c r="Q3" s="11"/>
     </row>
-    <row r="4" spans="1:17" ht="14.25">
+    <row r="4" spans="1:17" ht="15.75">
       <c r="A4" s="3" t="s">
         <v>100</v>
       </c>
@@ -1990,34 +2051,34 @@
         <v>106</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>107</v>
+        <v>119</v>
       </c>
       <c r="I4" s="1" t="s">
-        <v>108</v>
+        <v>121</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>109</v>
+        <v>123</v>
       </c>
       <c r="K4" s="1" t="s">
-        <v>110</v>
+        <v>125</v>
       </c>
       <c r="L4" s="1" t="s">
-        <v>111</v>
+        <v>126</v>
       </c>
       <c r="M4" s="1" t="s">
-        <v>112</v>
+        <v>127</v>
       </c>
       <c r="N4" s="1" t="s">
-        <v>113</v>
+        <v>128</v>
       </c>
       <c r="O4" s="1" t="s">
-        <v>114</v>
+        <v>129</v>
       </c>
       <c r="P4" s="1" t="s">
-        <v>115</v>
+        <v>130</v>
       </c>
       <c r="Q4" s="1" t="s">
-        <v>116</v>
+        <v>131</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -2056,14 +2117,14 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:Q5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" s="30" t="s">
@@ -2094,7 +2155,7 @@
       <c r="P1" s="32"/>
       <c r="Q1" s="32"/>
     </row>
-    <row r="2" spans="1:17" ht="40.5">
+    <row r="2" spans="1:17" ht="42.75">
       <c r="A2" s="30"/>
       <c r="B2" s="30"/>
       <c r="C2" s="31"/>
@@ -2160,7 +2221,7 @@
       <c r="P3" s="11"/>
       <c r="Q3" s="11"/>
     </row>
-    <row r="4" spans="1:17" ht="14.25">
+    <row r="4" spans="1:17" ht="15.75">
       <c r="A4" s="3" t="s">
         <v>100</v>
       </c>
@@ -2248,14 +2309,14 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:Q5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G11" sqref="A10:G11"/>
+      <selection activeCell="C24" sqref="C24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" s="30" t="s">
@@ -2286,7 +2347,7 @@
       <c r="P1" s="32"/>
       <c r="Q1" s="32"/>
     </row>
-    <row r="2" spans="1:17" ht="40.5">
+    <row r="2" spans="1:17" ht="42.75">
       <c r="A2" s="30"/>
       <c r="B2" s="30"/>
       <c r="C2" s="31"/>
@@ -2352,7 +2413,7 @@
       <c r="P3" s="11"/>
       <c r="Q3" s="11"/>
     </row>
-    <row r="4" spans="1:17" ht="14.25">
+    <row r="4" spans="1:17" ht="15.75">
       <c r="A4" s="3" t="s">
         <v>100</v>
       </c>
